--- a/sales data.xlsx
+++ b/sales data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\insurer-emperical-study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62CA6E-409B-412B-9638-0775B598DDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>健康保險給付</t>
   </si>
@@ -218,17 +224,33 @@
   </si>
   <si>
     <t>Chubb Tempest Life 20</t>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,8 +258,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,15 +312,978 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>年金保險核保利潤</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26247511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12082950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2909856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13236168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12782768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24927299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13511771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6087915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2153427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6885924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1094690</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12977809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32328310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30520400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10754880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-703393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8F4-45EF-8932-37FDD5B90F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245819167"/>
+        <c:axId val="253507903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245819167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253507903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253507903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245819167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA00AA1-4B60-4BE7-BD6B-EB287BAC20FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,7 +1325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +1357,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,6 +1409,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +1602,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="9" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -610,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +1673,7 @@
         <v>-512662</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -668,7 +1702,7 @@
         <v>16797580</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -697,7 +1731,7 @@
         <v>5980244</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -726,7 +1760,7 @@
         <v>42330517</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,7 +1789,7 @@
         <v>5535624</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -784,7 +1818,7 @@
         <v>35767546</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -813,7 +1847,7 @@
         <v>-3048419</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -842,7 +1876,7 @@
         <v>5465386</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -871,7 +1905,7 @@
         <v>6087915</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -900,7 +1934,7 @@
         <v>-2153427</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -929,7 +1963,7 @@
         <v>-28173</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -958,7 +1992,7 @@
         <v>11240634</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -987,7 +2021,7 @@
         <v>6885924</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +2050,7 @@
         <v>4120302</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +2079,7 @@
         <v>158120</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +2108,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +2137,7 @@
         <v>2020946</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +2166,7 @@
         <v>15615596</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +2195,7 @@
         <v>1231650</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +2224,7 @@
         <v>382780</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +2253,7 @@
         <v>11220033</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +2282,7 @@
         <v>6873806</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +2311,7 @@
         <v>-9745154</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +2340,7 @@
         <v>12533373</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +2369,7 @@
         <v>34270467</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +2398,7 @@
         <v>157596</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +2427,7 @@
         <v>7291944</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +2456,7 @@
         <v>5552780</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1451,7 +2485,7 @@
         <v>-1094690</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +2514,7 @@
         <v>-47193</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1509,7 +2543,7 @@
         <v>-4721707</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1538,7 +2572,7 @@
         <v>7626610</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1567,7 +2601,7 @@
         <v>12977809</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1596,7 +2630,7 @@
         <v>-531486</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +2659,7 @@
         <v>17275</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +2688,7 @@
         <v>2488998</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +2717,7 @@
         <v>35099</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +2746,7 @@
         <v>32328310</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1741,7 +2775,7 @@
         <v>1748198</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -1770,7 +2804,7 @@
         <v>-61518</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -1799,7 +2833,7 @@
         <v>30520400</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -1828,7 +2862,7 @@
         <v>-580546</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -1857,7 +2891,7 @@
         <v>17873690</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -1886,7 +2920,7 @@
         <v>-6198322</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -1915,7 +2949,7 @@
         <v>12229586</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -1944,7 +2978,7 @@
         <v>645197</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -1973,7 +3007,7 @@
         <v>17373781</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2002,7 +3036,7 @@
         <v>10754880</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2031,7 +3065,7 @@
         <v>-703393</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -2060,7 +3094,7 @@
         <v>-28658</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2089,7 +3123,7 @@
         <v>949923</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2118,7 +3152,7 @@
         <v>7785341</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -2147,7 +3181,7 @@
         <v>2637942</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +3210,7 @@
         <v>-1960585</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2205,7 +3239,7 @@
         <v>-1521</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -2234,7 +3268,7 @@
         <v>-344056</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +3297,7 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -2292,7 +3326,7 @@
         <v>14905019</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2321,7 +3355,43 @@
         <v>8385284</v>
       </c>
     </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <f>CORREL(F:F, H:H)</f>
+        <v>0.87599870763877841</v>
+      </c>
+      <c r="D67">
+        <f>CORREL(F:F, I:I)</f>
+        <v>0.40064647528661135</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <f>CORREL(G:G, H:H)</f>
+        <v>0.92036948785701933</v>
+      </c>
+      <c r="D68">
+        <f>CORREL(G:G, I:I)</f>
+        <v>0.38835291981917675</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>